--- a/ui-test/data/test_create_ldbz.xlsx
+++ b/ui-test/data/test_create_ldbz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ouyangwenjing/PycharmProjects/tyyd-pms/ui-test/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ouyangwenjing/PycharmProjects/test-framework/ui-test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D595A4-C0DD-E841-A470-D58629DE8744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C57B2BD-E801-8F44-9E39-CA3FD1543F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27860" windowHeight="17500" xr2:uid="{DB711A6C-4698-2842-888A-7FBEA3BA3BB8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{DB711A6C-4698-2842-888A-7FBEA3BA3BB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -66,6 +66,10 @@
   </si>
   <si>
     <t>{'bzjs': "2",'hjrq': 1598227200000,'hjxsDm': "0",'partyOrgId':1010000000000157,'rznxDm': "3",'sdhrs': "",'ydhrs': "",'yysjcyDm': ""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该届数已存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,48 +166,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -516,7 +479,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -547,14 +510,28 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="85">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16">
@@ -628,9 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B8EF81-E377-CF46-9174-4FB5A258B3C4}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
